--- a/results/HARTANTO.xlsx
+++ b/results/HARTANTO.xlsx
@@ -67,43 +67,43 @@
     <t>SALES</t>
   </si>
   <si>
+    <t>ROSA AP</t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML PLUS SUSPENSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>K24 (TEUKU UMAR) AP</t>
+  </si>
+  <si>
+    <t>CALNIC 30 PLUS KAPLET</t>
+  </si>
+  <si>
+    <t>APT BINTANG I</t>
+  </si>
+  <si>
+    <t>ESTIN TABLET</t>
+  </si>
+  <si>
+    <t>PRINGSEWU AP</t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML SUSPENSI</t>
+  </si>
+  <si>
     <t>DOA IBU AP</t>
   </si>
   <si>
-    <t>CALNIC 30 PLUS KAPLET</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>ROSA AP</t>
-  </si>
-  <si>
-    <t>CALNIC 100 ML PLUS SUSPENSI</t>
-  </si>
-  <si>
-    <t>K24 (TEUKU UMAR) AP</t>
-  </si>
-  <si>
-    <t>APT BINTANG I</t>
-  </si>
-  <si>
-    <t>ESTIN TABLET</t>
-  </si>
-  <si>
-    <t>PRINGSEWU AP</t>
-  </si>
-  <si>
-    <t>CALNIC 100 ML SUSPENSI</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>SALES PANEL / TENDER</t>
   </si>
   <si>
-    <t xml:space="preserve">APT POLYGON FARMA </t>
+    <t>APT POLYGON FARMA</t>
   </si>
   <si>
     <t>APT BIMA</t>
@@ -806,13 +806,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="11">
-        <v>138000</v>
+        <v>60000</v>
       </c>
       <c r="G12" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="11">
-        <v>138000</v>
+        <v>180000</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -825,13 +825,13 @@
         <v>21</v>
       </c>
       <c r="F13" s="12">
-        <v>60000</v>
+        <v>138000</v>
       </c>
       <c r="G13" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="12">
-        <v>180000</v>
+        <v>138000</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -841,54 +841,54 @@
         <v>22</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F14" s="11">
-        <v>138000</v>
+        <v>84000</v>
       </c>
       <c r="G14" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="11">
-        <v>138000</v>
+        <v>168000</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="8"/>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="12">
-        <v>84000</v>
+        <v>55000</v>
       </c>
       <c r="G15" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="12">
-        <v>168000</v>
+        <v>165000</v>
       </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F16" s="11">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="11">
         <v>3</v>
       </c>
       <c r="H16" s="11">
-        <v>165000</v>
+        <v>180000</v>
       </c>
       <c r="I16" s="10"/>
     </row>
@@ -898,16 +898,16 @@
         <v>19</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F17" s="12">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="G17" s="12">
         <v>3</v>
       </c>
       <c r="H17" s="12">
-        <v>180000</v>
+        <v>165000</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -917,7 +917,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="11">
         <v>55000</v>
@@ -936,35 +936,35 @@
         <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F19" s="12">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="G19" s="12">
         <v>3</v>
       </c>
       <c r="H19" s="12">
-        <v>165000</v>
+        <v>180000</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="11">
-        <v>60000</v>
+        <v>138000</v>
       </c>
       <c r="G20" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="11">
-        <v>180000</v>
+        <v>138000</v>
       </c>
       <c r="I20" s="10"/>
     </row>
